--- a/biology/Botanique/Myrrhis_odorata/Myrrhis_odorata.xlsx
+++ b/biology/Botanique/Myrrhis_odorata/Myrrhis_odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerfeuil musqué, Cerfeuil anisé, Cerfeuil d'Espagne
 Le Cerfeuil musqué, Cerfeuil anisé ou Cerfeuil d'Espagne est une plante herbacée vivace de la famille des Apiacées, cultivée pour ses feuilles et ses graines au goût sucré et anisé, utilisées comme condiments alimentaires.
@@ -512,12 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Myrrhis odorata a été décrite initialement par le naturaliste suédois Carl von Linné, et reclassé dans le genre Myrrhis par le naturaliste Giovanni Antonio Scopoli en 1772[1].
-Nom vernaculaire
-Cerfeuil perpétuel, cerfeuil d'Espagne, fougère musquée, gros persil. Il est parfois appelé Myrrhe et plus rarement Myrrhis odorant
-de : Myrrhenkerbel, en : cicely, es : perifollo oloroso, it : mirride odorosa.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Myrrhis odorata a été décrite initialement par le naturaliste suédois Carl von Linné, et reclassé dans le genre Myrrhis par le naturaliste Giovanni Antonio Scopoli en 1772.
+</t>
         </is>
       </c>
     </row>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cerfeuil perpétuel, cerfeuil d'Espagne, fougère musquée, gros persil. Il est parfois appelé Myrrhe et plus rarement Myrrhis odorant
+de : Myrrhenkerbel, en : cicely, es : perifollo oloroso, it : mirride odorosa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Myrrhis_odorata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrrhis_odorata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerfeuil musqué est une herbe vivace qui croît jusqu'à 1 m de hauteur. Tiges dressées, creuses, très ramifiées.
 Les grandes feuilles, jusqu'à 30 cm, molles, sont très découpées, bi- ou tripennées, et ressemblent à celle des fougères.
@@ -555,31 +606,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Myrrhis_odorata</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myrrhis_odorata</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante originaire d'Europe centrale (Suisse, Autriche) et méridionale (Albanie, ex-Yougoslavie, Italie, Espagne).
 Largement naturalisée ailleurs par la culture.
@@ -587,31 +640,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Myrrhis_odorata</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myrrhis_odorata</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Préfère un sol frais et bien fumé et une exposition ombragée.
 La multiplication se fait par semis en automne ou par division de touffes au printemps.
@@ -621,35 +676,37 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Myrrhis_odorata</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myrrhis_odorata</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles fraîches, crues, à odeur anisée caractéristique, peuvent servir à aromatiser les salades et crudités, omelettes et potages...
 Les graines sont utilisées pour parfumer les desserts et pour préparer des liqueurs.
-Les racines peuvent se consommer de la même manière que celles du panais[2].
+Les racines peuvent se consommer de la même manière que celles du panais.
 </t>
         </is>
       </c>
